--- a/biology/Zoologie/Eotrachodon/Eotrachodon.xlsx
+++ b/biology/Zoologie/Eotrachodon/Eotrachodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eotrachodon orientalis
-Eotrachodon est un genre éteint de dinosaures ornithopodes, un hadrosauridé (« dinosaures à bec de canard ») basal, ayant vécu au Crétacé supérieur, durant le Santonien terminal, il y a environ entre 84 Ma (millions d'années)[1],[2].
+Eotrachodon est un genre éteint de dinosaures ornithopodes, un hadrosauridé (« dinosaures à bec de canard ») basal, ayant vécu au Crétacé supérieur, durant le Santonien terminal, il y a environ entre 84 Ma (millions d'années),.
 Il vivait dans une grande région terrestre de l'est des États-Unis et du Canada, Appalachia, séparée de l'île continent de l'ouest américain, Laramidia, par une mer intérieure appelée la voie maritime intérieure de l'Ouest.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eotrachodon orientalis, unique espèce du genre, a été décrite en 2016 par Albert Prieto-Márquez (d),Gregory M. Erickson (d) et Jun A. Ebersole (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eotrachodon orientalis, unique espèce du genre, a été décrite en 2016 par Albert Prieto-Márquez (d),Gregory M. Erickson (d) et Jun A. Ebersole (d).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype, et seul fossile connu, référencé MSC 7949, est un crâne bien conservé et presque complet avec des éléments post-crâniens fragmentaires. C'est le seul hadrosauridé d'Appalachia dont on possède un crâne préservé[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype, et seul fossile connu, référencé MSC 7949, est un crâne bien conservé et presque complet avec des éléments post-crâniens fragmentaires. C'est le seul hadrosauridé d'Appalachia dont on possède un crâne préservé.
 Il a été découvert dans la formation géologique de Mooreville Chalk (d) en Alabama. Il y a environ 84 millions d'années, au Crétacé supérieur, époque durant laquelle vivait ce dinosaure, la région de l'est des États-Unis et du Canada correspondait à Appalachia, une masse terrestre séparée par une mer intérieure de Laramidia, une île continent correspondant maintenant à l'ouest de l'Amérique du Nord.
 Un autre hadrosaure primitif, un Hadrosauroidea basal, Lophorhothon est également connu dans la même formation, mais Eotrachodon a vécu quelques millions d'années avant lui. 
 </t>
@@ -577,9 +593,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eotrachodon orientalis a une longueur estimée entre 4 et 5 mètres[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eotrachodon orientalis a une longueur estimée entre 4 et 5 mètres.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Paléobiogéographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La présence dès le Santonien d'Eotrachodon et d'autres hadrosaures sur Appalachia (tels que Hadrosaurus et peut-être les genres Lophorhothon, Claosaurus et Hypsibema missouriensis) suggère que ce continent a pu être la région d'origine des Hadrosauridae[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La présence dès le Santonien d'Eotrachodon et d'autres hadrosaures sur Appalachia (tels que Hadrosaurus et peut-être les genres Lophorhothon, Claosaurus et Hypsibema missouriensis) suggère que ce continent a pu être la région d'origine des Hadrosauridae.
 </t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'analyse phylogénétique conduite par les inventeurs du genre a montré qu'Eotrachodon était le groupe frère des deux sous-familles d'hadrosauridés Lambeosaurinae et de Saurolophinae, regroupées par les auteurs dans la famille des Saurolophidae. Il est le seul hadrosauridé basal, avec le genre type Hadrosaurus, répertorié par A. Prieto-Marquez et ses collègues dans leur cladogramme ci-dessous[1] (ici très simplifié) :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénétique conduite par les inventeurs du genre a montré qu'Eotrachodon était le groupe frère des deux sous-familles d'hadrosauridés Lambeosaurinae et de Saurolophinae, regroupées par les auteurs dans la famille des Saurolophidae. Il est le seul hadrosauridé basal, avec le genre type Hadrosaurus, répertorié par A. Prieto-Marquez et ses collègues dans leur cladogramme ci-dessous (ici très simplifié) :
 </t>
         </is>
       </c>
@@ -670,7 +692,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Albert Prieto-Márquez, Gregory M. Erickson et Jun A. Ebersole, « A primitive hadrosaurid from southeastern North America and the origin and early evolution of ‘duck-billed’ dinosaurs », Journal of Vertebrate Paleontology, SVP et Taylor &amp; Francis, vol. 36, no 2,‎ 13 janvier 2016, e1054495 (ISSN 0272-4634 et 1937-2809, OCLC 238100068, DOI 10.1080/02724634.2015.1054495)</t>
         </is>
